--- a/biology/Médecine/Score_de_Chung/Score_de_Chung.xlsx
+++ b/biology/Médecine/Score_de_Chung/Score_de_Chung.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le score de Chung est une notation utilisée en hospitalisation ambulatoire pour déterminer si la sortie d'un patient est autorisée (« aptitude à la rue »). La version de ce score la plus courante en chirurgie ambulatoire est le modified Post Anaesthetic Discharge Scoring System (modified PADSS, ou « Système de notation de la sortie d'anesthésie modifié ») dit « score de Chung modifié », dans lequel les critères d'alimentation et de miction ont été retirés par rapport à la version non-modifiée[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le score de Chung est une notation utilisée en hospitalisation ambulatoire pour déterminer si la sortie d'un patient est autorisée (« aptitude à la rue »). La version de ce score la plus courante en chirurgie ambulatoire est le modified Post Anaesthetic Discharge Scoring System (modified PADSS, ou « Système de notation de la sortie d'anesthésie modifié ») dit « score de Chung modifié », dans lequel les critères d'alimentation et de miction ont été retirés par rapport à la version non-modifiée,.
 </t>
         </is>
       </c>
@@ -513,16 +525,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Score de Chung
-Cinq critères sont utilisés : 
+          <t>Score de Chung</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cinq critères sont utilisés : 
 variation des constantes vitales avant/après l'opération : température, pouls, respiration ;
 déambulation ;
 douleurs, nausées, vomissements ;
 saignement chirurgical ;
 boisson et miction.
 Chaque critère est noté entre 0 et 2.
-Score de Chung modifié
-variation des constantes vitales avant/après l'opération : température, pouls, respiration ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Score_de_Chung</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Score_de_Chung</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Compositions des scores[1]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Score de Chung modifié</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">variation des constantes vitales avant/après l'opération : température, pouls, respiration ;
 déambulation ;
 nausées et/ou vomissements ;
 douleurs ;
@@ -532,33 +584,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Score_de_Chung</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Score_de_Chung</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Aptitude à la rue</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec le score de Chung modifié, la sortie du patient est généralement possible pour une note de 9 ou 10[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec le score de Chung modifié, la sortie du patient est généralement possible pour une note de 9 ou 10.
 </t>
         </is>
       </c>
